--- a/Data/Tables/ET4.xlsx
+++ b/Data/Tables/ET4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Documents\GitHub\Training2\Data\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\Data\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E460A69D-6D29-4E18-BE6F-C6F83BD567FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0C77A5-D165-43F4-A9C1-E6728807E9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB97CE2-5848-4162-A957-04FDB820B051}">
   <dimension ref="A1:X73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1176,7 +1176,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>200235</v>
+        <v>201012</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="X2">
         <f ca="1">RANDBETWEEN(0,14)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
@@ -1252,7 +1252,7 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>200236</v>
+        <v>201013</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="X3">
         <f t="shared" ref="X3:X66" ca="1" si="1">RANDBETWEEN(0,14)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
@@ -1328,7 +1328,7 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>200237</v>
+        <v>201014</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="X4">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
@@ -1404,7 +1404,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>200238</v>
+        <v>201015</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="X5">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -1480,7 +1480,7 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>200239</v>
+        <v>201016</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="X6">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
@@ -1556,7 +1556,7 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <v>200240</v>
+        <v>201017</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="X7">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
@@ -1632,7 +1632,7 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>200241</v>
+        <v>201018</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="X8">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
@@ -1708,7 +1708,7 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>200242</v>
+        <v>201019</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="X9">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
@@ -1784,7 +1784,7 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>200243</v>
+        <v>201020</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="X10">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
@@ -1860,7 +1860,7 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>200244</v>
+        <v>201021</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="X11">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
@@ -1936,7 +1936,7 @@
         <v>31</v>
       </c>
       <c r="C12">
-        <v>200245</v>
+        <v>201022</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="X12">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
@@ -2012,7 +2012,7 @@
         <v>33</v>
       </c>
       <c r="C13">
-        <v>200246</v>
+        <v>201023</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="X13">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
@@ -2088,7 +2088,7 @@
         <v>35</v>
       </c>
       <c r="C14">
-        <v>200247</v>
+        <v>201024</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="X14">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
@@ -2164,7 +2164,7 @@
         <v>37</v>
       </c>
       <c r="C15">
-        <v>200248</v>
+        <v>201025</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="X15">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
@@ -2240,7 +2240,7 @@
         <v>39</v>
       </c>
       <c r="C16">
-        <v>200249</v>
+        <v>201026</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="X16">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
@@ -2316,7 +2316,7 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>200250</v>
+        <v>201027</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="X17">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
@@ -2392,7 +2392,7 @@
         <v>43</v>
       </c>
       <c r="C18">
-        <v>200251</v>
+        <v>201028</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="X18">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
@@ -2468,7 +2468,7 @@
         <v>45</v>
       </c>
       <c r="C19">
-        <v>200252</v>
+        <v>201029</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="X19">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
@@ -2544,7 +2544,7 @@
         <v>47</v>
       </c>
       <c r="C20">
-        <v>200253</v>
+        <v>201030</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="X20">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
@@ -2620,7 +2620,7 @@
         <v>49</v>
       </c>
       <c r="C21">
-        <v>200254</v>
+        <v>201031</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="X21">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
@@ -2696,7 +2696,7 @@
         <v>51</v>
       </c>
       <c r="C22">
-        <v>200255</v>
+        <v>201032</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="X22">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
@@ -2772,7 +2772,7 @@
         <v>53</v>
       </c>
       <c r="C23">
-        <v>200256</v>
+        <v>201033</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="X23">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
@@ -2848,7 +2848,7 @@
         <v>55</v>
       </c>
       <c r="C24">
-        <v>200257</v>
+        <v>201034</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="X24">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
@@ -2924,7 +2924,7 @@
         <v>57</v>
       </c>
       <c r="C25">
-        <v>200258</v>
+        <v>201035</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="X25">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
@@ -3000,7 +3000,7 @@
         <v>59</v>
       </c>
       <c r="C26">
-        <v>200259</v>
+        <v>201036</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="X26">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
@@ -3076,7 +3076,7 @@
         <v>61</v>
       </c>
       <c r="C27">
-        <v>200260</v>
+        <v>201037</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="X27">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
@@ -3152,7 +3152,7 @@
         <v>63</v>
       </c>
       <c r="C28">
-        <v>200261</v>
+        <v>201038</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -3228,7 +3228,7 @@
         <v>65</v>
       </c>
       <c r="C29">
-        <v>200262</v>
+        <v>201039</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="X29">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
@@ -3304,7 +3304,7 @@
         <v>67</v>
       </c>
       <c r="C30">
-        <v>200263</v>
+        <v>201040</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="X30">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
@@ -3380,7 +3380,7 @@
         <v>69</v>
       </c>
       <c r="C31">
-        <v>200264</v>
+        <v>201041</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -3456,7 +3456,7 @@
         <v>71</v>
       </c>
       <c r="C32">
-        <v>200265</v>
+        <v>201042</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="X32">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
@@ -3532,7 +3532,7 @@
         <v>73</v>
       </c>
       <c r="C33">
-        <v>200266</v>
+        <v>201043</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="X33">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
@@ -3608,7 +3608,7 @@
         <v>75</v>
       </c>
       <c r="C34">
-        <v>200267</v>
+        <v>201044</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="X34">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
@@ -3684,7 +3684,7 @@
         <v>77</v>
       </c>
       <c r="C35">
-        <v>200268</v>
+        <v>201045</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -3749,7 +3749,7 @@
       </c>
       <c r="X35">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
@@ -3760,7 +3760,7 @@
         <v>79</v>
       </c>
       <c r="C36">
-        <v>200269</v>
+        <v>201046</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="X36">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
@@ -3836,7 +3836,7 @@
         <v>81</v>
       </c>
       <c r="C37">
-        <v>200270</v>
+        <v>201047</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="X37">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
@@ -3912,7 +3912,7 @@
         <v>83</v>
       </c>
       <c r="C38">
-        <v>200271</v>
+        <v>201048</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="X38">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
@@ -3988,7 +3988,7 @@
         <v>85</v>
       </c>
       <c r="C39">
-        <v>200272</v>
+        <v>201049</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -4064,7 +4064,7 @@
         <v>87</v>
       </c>
       <c r="C40">
-        <v>200273</v>
+        <v>201050</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="X40">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
@@ -4140,7 +4140,7 @@
         <v>89</v>
       </c>
       <c r="C41">
-        <v>200274</v>
+        <v>201051</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="X41">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
@@ -4216,7 +4216,7 @@
         <v>91</v>
       </c>
       <c r="C42">
-        <v>200275</v>
+        <v>201052</v>
       </c>
       <c r="D42" t="s">
         <v>9</v>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="X42">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
@@ -4292,7 +4292,7 @@
         <v>93</v>
       </c>
       <c r="C43">
-        <v>200276</v>
+        <v>201053</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="X43">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
@@ -4368,7 +4368,7 @@
         <v>95</v>
       </c>
       <c r="C44">
-        <v>200277</v>
+        <v>201054</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="X44">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
@@ -4444,7 +4444,7 @@
         <v>97</v>
       </c>
       <c r="C45">
-        <v>200278</v>
+        <v>201055</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="X45">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
@@ -4520,7 +4520,7 @@
         <v>99</v>
       </c>
       <c r="C46">
-        <v>200279</v>
+        <v>201056</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="X46">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.3">
@@ -4596,7 +4596,7 @@
         <v>101</v>
       </c>
       <c r="C47">
-        <v>200280</v>
+        <v>201057</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
@@ -4661,7 +4661,7 @@
       </c>
       <c r="X47">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
@@ -4672,7 +4672,7 @@
         <v>103</v>
       </c>
       <c r="C48">
-        <v>200281</v>
+        <v>201058</v>
       </c>
       <c r="D48" t="s">
         <v>9</v>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="X48">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.3">
@@ -4748,7 +4748,7 @@
         <v>105</v>
       </c>
       <c r="C49">
-        <v>200282</v>
+        <v>201059</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
@@ -4813,7 +4813,7 @@
       </c>
       <c r="X49">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
@@ -4824,7 +4824,7 @@
         <v>107</v>
       </c>
       <c r="C50">
-        <v>200283</v>
+        <v>201060</v>
       </c>
       <c r="D50" t="s">
         <v>9</v>
@@ -4889,7 +4889,7 @@
       </c>
       <c r="X50">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
@@ -4900,7 +4900,7 @@
         <v>109</v>
       </c>
       <c r="C51">
-        <v>200284</v>
+        <v>201061</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="X51">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.3">
@@ -4976,7 +4976,7 @@
         <v>111</v>
       </c>
       <c r="C52">
-        <v>200285</v>
+        <v>201062</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="X52">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.3">
@@ -5052,7 +5052,7 @@
         <v>113</v>
       </c>
       <c r="C53">
-        <v>200286</v>
+        <v>201063</v>
       </c>
       <c r="D53" t="s">
         <v>9</v>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="X53">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
@@ -5128,7 +5128,7 @@
         <v>115</v>
       </c>
       <c r="C54">
-        <v>200287</v>
+        <v>201064</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="X54">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
@@ -5204,7 +5204,7 @@
         <v>117</v>
       </c>
       <c r="C55">
-        <v>200288</v>
+        <v>201065</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
@@ -5269,7 +5269,7 @@
       </c>
       <c r="X55">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
@@ -5280,7 +5280,7 @@
         <v>119</v>
       </c>
       <c r="C56">
-        <v>200289</v>
+        <v>201066</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="X56">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.3">
@@ -5356,7 +5356,7 @@
         <v>121</v>
       </c>
       <c r="C57">
-        <v>200290</v>
+        <v>201067</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="X57">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
@@ -5432,7 +5432,7 @@
         <v>123</v>
       </c>
       <c r="C58">
-        <v>200291</v>
+        <v>201068</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="X58">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
@@ -5508,7 +5508,7 @@
         <v>125</v>
       </c>
       <c r="C59">
-        <v>200292</v>
+        <v>201069</v>
       </c>
       <c r="D59" t="s">
         <v>9</v>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="X59">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
@@ -5584,7 +5584,7 @@
         <v>127</v>
       </c>
       <c r="C60">
-        <v>200293</v>
+        <v>201070</v>
       </c>
       <c r="D60" t="s">
         <v>9</v>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="X60">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
@@ -5660,7 +5660,7 @@
         <v>129</v>
       </c>
       <c r="C61">
-        <v>200294</v>
+        <v>201071</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="X61">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
@@ -5736,7 +5736,7 @@
         <v>131</v>
       </c>
       <c r="C62">
-        <v>200295</v>
+        <v>201072</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="X62">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
@@ -5812,7 +5812,7 @@
         <v>133</v>
       </c>
       <c r="C63">
-        <v>200296</v>
+        <v>201073</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="X63">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.3">
@@ -5888,7 +5888,7 @@
         <v>135</v>
       </c>
       <c r="C64">
-        <v>200297</v>
+        <v>201074</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
@@ -5964,7 +5964,7 @@
         <v>137</v>
       </c>
       <c r="C65">
-        <v>200298</v>
+        <v>201075</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="X65">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.3">
@@ -6040,7 +6040,7 @@
         <v>139</v>
       </c>
       <c r="C66">
-        <v>200299</v>
+        <v>201076</v>
       </c>
       <c r="D66" t="s">
         <v>9</v>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="X66">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.3">
@@ -6116,7 +6116,7 @@
         <v>141</v>
       </c>
       <c r="C67">
-        <v>200300</v>
+        <v>201077</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
@@ -6181,7 +6181,7 @@
       </c>
       <c r="X67">
         <f t="shared" ref="X67:X73" ca="1" si="3">RANDBETWEEN(0,14)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.3">
@@ -6192,7 +6192,7 @@
         <v>143</v>
       </c>
       <c r="C68">
-        <v>200301</v>
+        <v>201078</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="X68">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.3">
@@ -6268,7 +6268,7 @@
         <v>145</v>
       </c>
       <c r="C69">
-        <v>200302</v>
+        <v>201079</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="X69">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.3">
@@ -6344,7 +6344,7 @@
         <v>147</v>
       </c>
       <c r="C70">
-        <v>200303</v>
+        <v>201080</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
@@ -6409,7 +6409,7 @@
       </c>
       <c r="X70">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.3">
@@ -6420,7 +6420,7 @@
         <v>149</v>
       </c>
       <c r="C71">
-        <v>200304</v>
+        <v>201081</v>
       </c>
       <c r="D71" t="s">
         <v>9</v>
@@ -6485,7 +6485,7 @@
       </c>
       <c r="X71">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.3">
@@ -6496,7 +6496,7 @@
         <v>151</v>
       </c>
       <c r="C72">
-        <v>200305</v>
+        <v>201082</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="X72">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.3">
@@ -6572,7 +6572,7 @@
         <v>153</v>
       </c>
       <c r="C73">
-        <v>200306</v>
+        <v>201083</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="X73">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
